--- a/02_Output/TRI_Components_Means.xlsx
+++ b/02_Output/TRI_Components_Means.xlsx
@@ -1,21 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennis/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/01_Uni/5. Semester/01_Masterarbeit/03_R_Project_MA/02_Output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE59203B-C301-5640-B6CB-9A83E0A996D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tri_comp_means" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>TR Components</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Optimism (OPT)</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>Innovativeness (INN)</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>Discomfort (DIS)</t>
+  </si>
+  <si>
+    <t>3.59</t>
+  </si>
+  <si>
+    <t>Insecurity (INS)</t>
+  </si>
+  <si>
+    <t>4.83</t>
+  </si>
+  <si>
+    <t>Overall TRI</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,12 +79,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,22 +105,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +203,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +255,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,83 +448,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>TR Components</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Optimism (OPT)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Innovativeness (INN)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Discomfort (DIS)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Insecurity (INS)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Overall TRI</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
